--- a/doc/全体图Spring+Tomcat+Jpa+Postgres+Hibernate.xlsx
+++ b/doc/全体图Spring+Tomcat+Jpa+Postgres+Hibernate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Eclipse_2018-09.app/Contents/workspace/feihuTool_yun/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CC429BC-E79D-7241-876D-4E615D24927A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C116B636-7BFB-9E40-9F3D-25B2D82BDD57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="14140" activeTab="5" xr2:uid="{F09244F4-BA47-B840-9E74-DAADC2A347FB}"/>
+    <workbookView xWindow="5320" yWindow="4220" windowWidth="28800" windowHeight="15840" activeTab="6" xr2:uid="{F09244F4-BA47-B840-9E74-DAADC2A347FB}"/>
   </bookViews>
   <sheets>
     <sheet name="全体图" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="百度API原理" sheetId="4" r:id="rId4"/>
     <sheet name="400023的错误" sheetId="5" r:id="rId5"/>
     <sheet name="tokenAccess" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="93">
   <si>
     <t>持久层</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,12 +249,1012 @@
   <si>
     <t>http://developer.baidu.com/console#app/project</t>
   </si>
+  <si>
+    <t>很多概念性问题没有解决</t>
+  </si>
+  <si>
+    <t>参考</t>
+  </si>
+  <si>
+    <t>https://openapi.baidu.com/wiki/index.php?title=%E4%BD%BF%E7%94%A8Implicit_Grant%E6%96%B9%E5%BC%8F%E8%8E%B7%E5%8F%96Access_Token</t>
+  </si>
+  <si>
+    <r>
+      <t>问：百度网盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val=".PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调用出现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>{"error_code":4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val=".PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>"error_msg":"No permission to do this operation"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val=".PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>"request_id":7015566025241457221}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>答：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val=".PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、百度要对程序进行授权（不是所有程序都可以使用百度网盘，要事先登记）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>登记后取到以下信息：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> CLIENTID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val=".PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>CLIENTSECRET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val=".PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>REDIRECTURI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>如何使用百度云</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="18"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>API接口  https://zhidao.baidu.com/question/1370882080002591139.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>百度</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="18"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OAuth                        http://developer.baidu.com/wiki/index.php?title=docs/oauth</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>坑：关于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>REDIRECTURI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val=".PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，开发阶段填</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>oob</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val=".PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>即可。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>开发相关资源</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="18"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> https://openapi.baidu.com/wiki/index.php?title=docs/oauth/showcase</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        2.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val=".PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val=".PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、取到的信息，可以申请到【授权码】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        2.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val=".PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>也可以通过网页工具直接取得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val=".PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Access Token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val=".PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>        2.1.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val=".PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val=".PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、的【授权码】再加上用户自己的信息，就可以得到【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Access Token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val=".PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val=".PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参考</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val=".PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Implicit Grant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val=".PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方式获取</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Access Token</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        2.1.1.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val=".PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、有了【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Access Token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val=".PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】程序就可以进出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val=".PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>该用户的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val=".PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>百度网盘了</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val=".PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参考</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="18"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>利用百度云盘</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="18"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>API</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="18"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上传文件至百度云盘</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="18"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>    https://yq.aliyun.com/articles/316201</t>
+    </r>
+  </si>
+  <si>
+    <t>去申请一个开发者账户（光有百度账户没用，还得是能开发的才行）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册一个应用程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择你刚申请的程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是关于这个程序的关键信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开通PCS API权限。注PCS就是网盘的意思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写必要的申请信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HttpClient client=FastHttpClient.newBuilder();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>build().</t>
+  </si>
+  <si>
+    <t>execute();</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Map&lt;String, String&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>cookie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7F0055"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> HashMap&lt;String, String&gt;();</t>
+    </r>
+  </si>
+  <si>
+    <t>client.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get().</t>
+  </si>
+  <si>
+    <r>
+      <t>cookie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.put(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"BDUSS"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>baiduDto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.getBduss());</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>addHeader(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"cookie"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, "BDUSS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=;dVZXltem84cWI0NGhFYnItbFZhaEhyaXoySVVCOFU4aX56aTh0LW9aTzNyLUpkRUFBQUFBJCQAAAAAAAAAAAEAAADxbSINeWh3enExOTgxAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAALciu123IrtdeU"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>).</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>url(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0925FF"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"http://pcs.baidu.com/rest/2.0/pcs/file"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>addParams(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"app_id"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>266719"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>).</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>addParams(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"method"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>upload"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>).</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>addParams(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"path"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>"/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>apps"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>).</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">InputStream </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> FileInputStream("/Users/haoyan/Desktop/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>架构说明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.txt");</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addFile("file", "架构说明.txt",is).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="34">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -318,12 +1319,183 @@
     </font>
     <font>
       <u/>
+      <sz val="18"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="24"/>
       <color theme="10"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val=".PingFang SC"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="18"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF212222"/>
+      <name val=".PingFang SC"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="18"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="18"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="18"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF00FF"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF00FF"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7F0055"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0925FF"/>
+      <name val="等线 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2A00FF"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -443,7 +1615,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -510,6 +1682,39 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -517,6 +1722,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0925FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3670,13 +4880,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3816,13 +5026,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3974,13 +5184,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4134,13 +5344,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4246,13 +5456,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4299,13 +5509,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4352,13 +5562,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4416,13 +5626,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4469,13 +5679,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4529,13 +5739,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4582,13 +5792,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4642,13 +5852,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4702,13 +5912,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4828,13 +6038,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4875,6 +6085,122 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA61FEB2-A067-D946-A3EC-2E2A6ECD876E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1016000" y="381000"/>
+          <a:ext cx="3848100" cy="3162300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400"/>
+            <a:t>实现原理这种东西，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400"/>
+            <a:t>是助消化的。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400"/>
+            <a:t>听一听就完了，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400"/>
+            <a:t>关键要知道手顺书在哪。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400"/>
+            <a:t>这玩意才真顶饿。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400"/>
+            <a:t>         </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+            <a:t>20191031</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400"/>
+            <a:t> 颜老师</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5063,13 +6389,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5193,13 +6519,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5284,13 +6610,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5414,13 +6740,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5478,13 +6804,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5614,13 +6940,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5700,13 +7026,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>260350</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5756,13 +7082,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5812,13 +7138,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5868,13 +7194,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>260350</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5926,13 +7252,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5984,13 +7310,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>232</xdr:row>
+      <xdr:row>272</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>274</xdr:row>
+      <xdr:row>314</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6028,13 +7354,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6072,13 +7398,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6116,13 +7442,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6182,13 +7508,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6226,13 +7552,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6292,13 +7618,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6336,13 +7662,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6402,13 +7728,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6468,13 +7794,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>202</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6598,13 +7924,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>210</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>213</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6689,13 +8015,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>197</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6753,13 +8079,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6819,13 +8145,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>209</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6885,13 +8211,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>204</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6938,13 +8264,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>206</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6991,13 +8317,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>211</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7044,13 +8370,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>224</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7110,13 +8436,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7163,13 +8489,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>229</xdr:row>
+      <xdr:row>269</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7207,13 +8533,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>209</xdr:row>
+      <xdr:row>249</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>212</xdr:row>
+      <xdr:row>252</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7273,13 +8599,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>206</xdr:row>
+      <xdr:row>246</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>211</xdr:row>
+      <xdr:row>251</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7394,13 +8720,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>208</xdr:row>
+      <xdr:row>248</xdr:row>
       <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>211</xdr:row>
+      <xdr:row>251</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7441,6 +8767,803 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="肘形连接符 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9D95E50-BF05-8141-8DF6-D48FD32EB04E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2647950" y="50800"/>
+          <a:ext cx="3924300" cy="7048500"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 64239"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>63501</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>220134</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>160867</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6636DE89-BD63-7648-A23A-CA579A03A565}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2552701" y="965200"/>
+          <a:ext cx="4305300" cy="2446867"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>void</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>上传文件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>通过文件流</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>() </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>throws</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Exception {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>          InputStream </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>is</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>new</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> FileInputStream("/tmp/logo.jpg");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>          Response </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>response</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> = FastHttpClient.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>newBuilder</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>().</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                    connectTimeout(10, TimeUnit.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SECONDS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                    build().</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                    post().</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                    url("</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>上传地址</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>").</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                    addFile("file", "logo.jpg",is).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                    build().</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                    execute();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>logger.info(response.body().string());</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>440267</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>160866</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>110066</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7169" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC1416EC-AAA5-ED48-87FA-2B1330AE540E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7907867" y="160866"/>
+          <a:ext cx="9618133" cy="3810000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="等线" charset="-122"/>
+              <a:ea typeface="等线" charset="-122"/>
+            </a:rPr>
+            <a:t>	//10.自动携带Cookie进行请求</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="等线" charset="-122"/>
+              <a:ea typeface="等线" charset="-122"/>
+            </a:rPr>
+            <a:t>	void 自动携带Cookie进行请求() throws Exception {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="等线" charset="-122"/>
+              <a:ea typeface="等线" charset="-122"/>
+            </a:rPr>
+            <a:t>		LocalCookieJar cookieList=new LocalCookieJar();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="等线" charset="-122"/>
+              <a:ea typeface="等线" charset="-122"/>
+            </a:rPr>
+            <a:t>		HttpClient client=FastHttpClient.newBuilder()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="等线" charset="-122"/>
+              <a:ea typeface="等线" charset="-122"/>
+            </a:rPr>
+            <a:t>		        .followRedirects(false) //禁制OkHttp的重定向操作，我们自己处理重定向</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="等线" charset="-122"/>
+              <a:ea typeface="等线" charset="-122"/>
+            </a:rPr>
+            <a:t>		        .followSslRedirects(false)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="等线" charset="-122"/>
+              <a:ea typeface="等线" charset="-122"/>
+            </a:rPr>
+            <a:t>		        .cookieJar(cookieList)   //为OkHttp设置自动携带Cookie的功能</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="等线" charset="-122"/>
+              <a:ea typeface="等线" charset="-122"/>
+            </a:rPr>
+            <a:t>		        .build();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="等线" charset="-122"/>
+              <a:ea typeface="等线" charset="-122"/>
+            </a:rPr>
+            <a:t>		String url="https://www.baidu.com/";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="等线" charset="-122"/>
+              <a:ea typeface="等线" charset="-122"/>
+            </a:rPr>
+            <a:t>		client.get().addHeader("Referer","https://www.baidu.com/").</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="等线" charset="-122"/>
+              <a:ea typeface="等线" charset="-122"/>
+            </a:rPr>
+            <a:t>			url(url).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="等线" charset="-122"/>
+              <a:ea typeface="等线" charset="-122"/>
+            </a:rPr>
+            <a:t>			build().</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="等线" charset="-122"/>
+              <a:ea typeface="等线" charset="-122"/>
+            </a:rPr>
+            <a:t>			execute();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="等线" charset="-122"/>
+              <a:ea typeface="等线" charset="-122"/>
+            </a:rPr>
+            <a:t>		System.out.println(cookieList.cookies);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="等线" charset="-122"/>
+              <a:ea typeface="等线" charset="-122"/>
+            </a:rPr>
+            <a:t>	}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9086,29 +11209,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB38C22-16B5-6646-BBDC-A57A4D335B7E}">
-  <dimension ref="B5:J23"/>
+  <dimension ref="B23:J41"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="5" spans="2:10">
-      <c r="J5" s="19" t="s">
+    <row r="23" spans="10:10">
+      <c r="J23" s="19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="19" t="s">
+    <row r="33" spans="2:10">
+      <c r="B33" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="J33" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="19" t="s">
+    <row r="41" spans="2:10">
+      <c r="B41" s="19" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9258,49 +11381,325 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3701FC52-A1B9-1D45-8B6B-547CFABDBAA0}">
-  <dimension ref="B36:B184"/>
+  <dimension ref="B2:E272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="S182" sqref="S182"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="L347" sqref="L347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="36" spans="2:2" ht="31">
-      <c r="B36" s="21" t="s">
+    <row r="2" spans="2:5" ht="23">
+      <c r="B2" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="23">
+      <c r="B3" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="23">
+      <c r="B4" s="24"/>
+    </row>
+    <row r="5" spans="2:5" ht="22">
+      <c r="B5" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="24">
+      <c r="B6" s="26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="23">
+      <c r="C7" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="22">
+      <c r="C8" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="23">
+      <c r="D9" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="23">
+      <c r="D10" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="23">
+      <c r="C11" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="23">
+      <c r="B12" s="24"/>
+    </row>
+    <row r="13" spans="2:5" ht="24">
+      <c r="B13" s="26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="24">
+      <c r="B14" s="26"/>
+    </row>
+    <row r="15" spans="2:5" ht="22">
+      <c r="D15" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="23">
+      <c r="E16" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="23">
+      <c r="B17" s="24"/>
+    </row>
+    <row r="18" spans="2:5" ht="24">
+      <c r="C18" s="26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="24">
+      <c r="C19" s="26"/>
+    </row>
+    <row r="20" spans="2:5" ht="24">
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="27"/>
+    </row>
+    <row r="21" spans="2:5" ht="24">
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="24">
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="24">
+      <c r="B23" s="27"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+    </row>
+    <row r="24" spans="2:5" ht="24">
+      <c r="B24" s="27"/>
+      <c r="C24" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+    </row>
+    <row r="25" spans="2:5" ht="24">
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+    </row>
+    <row r="26" spans="2:5" ht="24">
+      <c r="B26" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+    </row>
+    <row r="27" spans="2:5" ht="24">
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="26"/>
+    </row>
+    <row r="28" spans="2:5" ht="24">
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="27"/>
+    </row>
+    <row r="29" spans="2:5" ht="24">
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" ht="31">
+      <c r="B76" s="22" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="61" spans="2:2" ht="31">
-      <c r="B61" s="21" t="s">
+    <row r="100" spans="2:2">
+      <c r="B100" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" ht="31">
+      <c r="B101" s="22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="112" spans="2:2" ht="31">
-      <c r="B112" s="21" t="s">
+    <row r="151" spans="2:2">
+      <c r="B151" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" ht="31">
+      <c r="B152" s="22" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="140" spans="2:2" ht="31">
-      <c r="B140" s="21" t="s">
+    <row r="179" spans="2:2">
+      <c r="B179" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" ht="31">
+      <c r="B180" s="22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="184" spans="2:2" ht="31">
-      <c r="B184" s="21" t="s">
+    <row r="222" spans="2:2">
+      <c r="B222" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2" ht="31">
+      <c r="B224" s="22" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2">
+      <c r="B272" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B184" r:id="rId1" location="manage/apilist!appid=17656943" display="http://developer.baidu.com/console - manage/apilist!appid=17656943" xr:uid="{7F729A69-99B0-FA43-BAEB-8DC039F3FC92}"/>
-    <hyperlink ref="B140" r:id="rId2" location="app/17656943" display="http://developer.baidu.com/console - app/17656943" xr:uid="{67E10C59-9E31-3C46-ABE9-B0660D235EB4}"/>
-    <hyperlink ref="B36" r:id="rId3" xr:uid="{C01FABFF-E3BC-C94A-B395-BC7583166F23}"/>
-    <hyperlink ref="B61" r:id="rId4" xr:uid="{9F9EF2B1-C5B5-2F4D-B97E-78E3F2ADEF2F}"/>
-    <hyperlink ref="B112" r:id="rId5" location="app/project" display="http://developer.baidu.com/console - app/project" xr:uid="{EC23FB45-81B1-9645-9B00-F6C5ADAAEE3A}"/>
+    <hyperlink ref="B224" r:id="rId1" location="manage/apilist!appid=17656943" display="http://developer.baidu.com/console - manage/apilist!appid=17656943" xr:uid="{7F729A69-99B0-FA43-BAEB-8DC039F3FC92}"/>
+    <hyperlink ref="B180" r:id="rId2" location="app/17656943" display="http://developer.baidu.com/console - app/17656943" xr:uid="{67E10C59-9E31-3C46-ABE9-B0660D235EB4}"/>
+    <hyperlink ref="B76" r:id="rId3" xr:uid="{C01FABFF-E3BC-C94A-B395-BC7583166F23}"/>
+    <hyperlink ref="B101" r:id="rId4" xr:uid="{9F9EF2B1-C5B5-2F4D-B97E-78E3F2ADEF2F}"/>
+    <hyperlink ref="B152" r:id="rId5" location="app/project" display="http://developer.baidu.com/console - app/project" xr:uid="{EC23FB45-81B1-9645-9B00-F6C5ADAAEE3A}"/>
+    <hyperlink ref="D9" r:id="rId6" display="https://zhidao.baidu.com/question/1370882080002591139.html" xr:uid="{FD328B89-E4E9-CD45-803E-00C3054CE6E6}"/>
+    <hyperlink ref="D10" r:id="rId7" display="http://developer.baidu.com/wiki/index.php?title=docs/oauth" xr:uid="{1AD411D7-CCE7-434F-A3DD-C9535FD16756}"/>
+    <hyperlink ref="E16" r:id="rId8" display="https://openapi.baidu.com/wiki/index.php?title=docs/oauth/showcase" xr:uid="{47793333-6C30-A742-82DC-8A5D79F5AD0A}"/>
+    <hyperlink ref="E22" r:id="rId9" xr:uid="{0CF86327-0E82-E24A-BC7D-7E713977E987}"/>
+    <hyperlink ref="E29" r:id="rId10" display="https://yq.aliyun.com/articles/316201" xr:uid="{63EF609D-91A6-FB4D-8FA4-AF7A890B0698}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId6"/>
+  <drawing r:id="rId11"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B8D97A-7C2D-B740-A258-466716C5CDFA}">
+  <dimension ref="E22:K33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="22" spans="5:11">
+      <c r="E22" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+    </row>
+    <row r="23" spans="5:11">
+      <c r="E23" s="30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="5:11">
+      <c r="E24" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="5:11">
+      <c r="H25" s="32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="5:11">
+      <c r="H26" s="30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="5:11">
+      <c r="H27" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="5:11">
+      <c r="H28" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="5:11">
+      <c r="H29" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="5:11">
+      <c r="H30" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="5:11">
+      <c r="H31" s="29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="5:11">
+      <c r="H32" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="K32" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="11:11">
+      <c r="K33" s="31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>